--- a/database/user_pkg_SPM.xlsx
+++ b/database/user_pkg_SPM.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pkgspm\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Xampp\htdocs\pkgspm\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CA321B3-CF21-47DA-BEEC-5BD961450D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2B3BBC-6E05-4655-B749-E894F20D8D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guru" sheetId="1" r:id="rId1"/>
-    <sheet name="SiswaKelasX" sheetId="3" r:id="rId2"/>
-    <sheet name="SiswaKelasXI" sheetId="4" r:id="rId3"/>
-    <sheet name="SiswaKelasXII" sheetId="2" r:id="rId4"/>
+    <sheet name="GuruNgajar" sheetId="5" r:id="rId2"/>
+    <sheet name="usersiswa" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,17 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="50">
-  <si>
-    <t>NIS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="150">
   <si>
     <t>NAMA</t>
   </si>
   <si>
-    <t>KELAS</t>
-  </si>
-  <si>
     <t>LAMA PENGABDIAN (TAHUN)</t>
   </si>
   <si>
@@ -183,7 +176,313 @@
     <t>Yuni Nur hayati S.kom</t>
   </si>
   <si>
-    <t>DATA SISWA NILAI TERTINGGI KE TERENDAH (10 ANAK)</t>
+    <t>user</t>
+  </si>
+  <si>
+    <t>guru1</t>
+  </si>
+  <si>
+    <t>guru2</t>
+  </si>
+  <si>
+    <t>guru3</t>
+  </si>
+  <si>
+    <t>guru4</t>
+  </si>
+  <si>
+    <t>guru5</t>
+  </si>
+  <si>
+    <t>guru6</t>
+  </si>
+  <si>
+    <t>guru7</t>
+  </si>
+  <si>
+    <t>guru8</t>
+  </si>
+  <si>
+    <t>guru9</t>
+  </si>
+  <si>
+    <t>guru10</t>
+  </si>
+  <si>
+    <t>guru11</t>
+  </si>
+  <si>
+    <t>guru12</t>
+  </si>
+  <si>
+    <t>guru13</t>
+  </si>
+  <si>
+    <t>guru14</t>
+  </si>
+  <si>
+    <t>guru15</t>
+  </si>
+  <si>
+    <t>guru16</t>
+  </si>
+  <si>
+    <t>guru17</t>
+  </si>
+  <si>
+    <t>guru18</t>
+  </si>
+  <si>
+    <t>guru19</t>
+  </si>
+  <si>
+    <t>guru20</t>
+  </si>
+  <si>
+    <t>guru21</t>
+  </si>
+  <si>
+    <t>guru22</t>
+  </si>
+  <si>
+    <t>guru23</t>
+  </si>
+  <si>
+    <t>guru24</t>
+  </si>
+  <si>
+    <t>guru25</t>
+  </si>
+  <si>
+    <t>guru26</t>
+  </si>
+  <si>
+    <t>guru27</t>
+  </si>
+  <si>
+    <t>guru28</t>
+  </si>
+  <si>
+    <t>guru29</t>
+  </si>
+  <si>
+    <t>guru30</t>
+  </si>
+  <si>
+    <t>guru31</t>
+  </si>
+  <si>
+    <t>guru32</t>
+  </si>
+  <si>
+    <t>guru33</t>
+  </si>
+  <si>
+    <t>guru34</t>
+  </si>
+  <si>
+    <t>guru35</t>
+  </si>
+  <si>
+    <t>guru36</t>
+  </si>
+  <si>
+    <t>guru37</t>
+  </si>
+  <si>
+    <t>guru38</t>
+  </si>
+  <si>
+    <t>guru39</t>
+  </si>
+  <si>
+    <t>guru40</t>
+  </si>
+  <si>
+    <t>guru41</t>
+  </si>
+  <si>
+    <t>guru42</t>
+  </si>
+  <si>
+    <t>guru43</t>
+  </si>
+  <si>
+    <t>guru44</t>
+  </si>
+  <si>
+    <t>guru45</t>
+  </si>
+  <si>
+    <t>10N</t>
+  </si>
+  <si>
+    <t>10T</t>
+  </si>
+  <si>
+    <t>11N</t>
+  </si>
+  <si>
+    <t>11T</t>
+  </si>
+  <si>
+    <t>12N</t>
+  </si>
+  <si>
+    <t>12T</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>siswaxn1</t>
+  </si>
+  <si>
+    <t>siswaxn2</t>
+  </si>
+  <si>
+    <t>siswaxn3</t>
+  </si>
+  <si>
+    <t>siswaxn4</t>
+  </si>
+  <si>
+    <t>siswaxn5</t>
+  </si>
+  <si>
+    <t>siswaxt1</t>
+  </si>
+  <si>
+    <t>siswaxt2</t>
+  </si>
+  <si>
+    <t>siswaxt3</t>
+  </si>
+  <si>
+    <t>siswaxt4</t>
+  </si>
+  <si>
+    <t>siswaxt5</t>
+  </si>
+  <si>
+    <t>siswa10n1</t>
+  </si>
+  <si>
+    <t>siswa10n2</t>
+  </si>
+  <si>
+    <t>siswa10n3</t>
+  </si>
+  <si>
+    <t>siswa10n4</t>
+  </si>
+  <si>
+    <t>siswa10n5</t>
+  </si>
+  <si>
+    <t>siswa10t1</t>
+  </si>
+  <si>
+    <t>siswa10t2</t>
+  </si>
+  <si>
+    <t>siswa10t3</t>
+  </si>
+  <si>
+    <t>siswa10t4</t>
+  </si>
+  <si>
+    <t>siswa10t5</t>
+  </si>
+  <si>
+    <t>siswaxin1</t>
+  </si>
+  <si>
+    <t>siswaxin2</t>
+  </si>
+  <si>
+    <t>siswaxin3</t>
+  </si>
+  <si>
+    <t>siswaxin4</t>
+  </si>
+  <si>
+    <t>siswaxin5</t>
+  </si>
+  <si>
+    <t>siswaxit1</t>
+  </si>
+  <si>
+    <t>siswaxit2</t>
+  </si>
+  <si>
+    <t>siswaxit3</t>
+  </si>
+  <si>
+    <t>siswaxit4</t>
+  </si>
+  <si>
+    <t>siswaxit5</t>
+  </si>
+  <si>
+    <t>siswa11n1</t>
+  </si>
+  <si>
+    <t>siswa11t1</t>
+  </si>
+  <si>
+    <t>siswa11n2</t>
+  </si>
+  <si>
+    <t>siswa11n3</t>
+  </si>
+  <si>
+    <t>siswa11n4</t>
+  </si>
+  <si>
+    <t>siswa11n5</t>
+  </si>
+  <si>
+    <t>siswa11t2</t>
+  </si>
+  <si>
+    <t>siswa11t3</t>
+  </si>
+  <si>
+    <t>siswa11t4</t>
+  </si>
+  <si>
+    <t>siswa11t5</t>
+  </si>
+  <si>
+    <t>siswaxiin1</t>
+  </si>
+  <si>
+    <t>siswaxiin2</t>
+  </si>
+  <si>
+    <t>siswaxiin3</t>
+  </si>
+  <si>
+    <t>siswaxiin4</t>
+  </si>
+  <si>
+    <t>siswaxiin5</t>
+  </si>
+  <si>
+    <t>siswaxiit1</t>
+  </si>
+  <si>
+    <t>siswaxiit2</t>
+  </si>
+  <si>
+    <t>siswaxiit3</t>
+  </si>
+  <si>
+    <t>siswaxiit4</t>
+  </si>
+  <si>
+    <t>siswaxiit5</t>
   </si>
 </sst>
 </file>
@@ -253,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -279,6 +578,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection sqref="A1:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -608,10 +910,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="1">
         <v>1</v>
@@ -632,7 +934,7 @@
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -656,7 +958,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -680,7 +982,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
@@ -704,7 +1006,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="7">
         <v>4</v>
@@ -728,7 +1030,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7">
         <v>5</v>
@@ -752,7 +1054,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="7">
         <v>6</v>
@@ -776,7 +1078,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="7">
         <v>7</v>
@@ -800,7 +1102,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="7">
         <v>8</v>
@@ -824,7 +1126,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="7">
         <v>9</v>
@@ -848,7 +1150,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="7">
         <v>10</v>
@@ -872,7 +1174,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7">
         <v>11</v>
@@ -896,7 +1198,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="7">
         <v>12</v>
@@ -920,7 +1222,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="7">
         <v>13</v>
@@ -944,7 +1246,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="7">
         <v>14</v>
@@ -968,7 +1270,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7">
         <v>15</v>
@@ -992,7 +1294,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="7">
         <v>16</v>
@@ -1015,7 +1317,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" s="7">
         <v>17</v>
@@ -1038,7 +1340,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" s="7">
         <v>18</v>
@@ -1061,7 +1363,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="7">
         <v>19</v>
@@ -1084,7 +1386,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" s="7">
         <v>20</v>
@@ -1107,7 +1409,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="7">
         <v>21</v>
@@ -1130,7 +1432,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" s="7">
         <v>22</v>
@@ -1153,7 +1455,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" s="7">
         <v>23</v>
@@ -1176,7 +1478,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" s="7">
         <v>24</v>
@@ -1199,7 +1501,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" s="7">
         <v>25</v>
@@ -1222,7 +1524,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="7">
         <v>26</v>
@@ -1245,7 +1547,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" s="7">
         <v>27</v>
@@ -1268,7 +1570,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29" s="7">
         <v>28</v>
@@ -1291,7 +1593,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" s="7">
         <v>29</v>
@@ -1314,7 +1616,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" s="7">
         <v>30</v>
@@ -1337,7 +1639,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" s="7">
         <v>31</v>
@@ -1360,7 +1662,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B33" s="7">
         <v>32</v>
@@ -1383,7 +1685,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" s="7">
         <v>33</v>
@@ -1406,7 +1708,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" s="7">
         <v>34</v>
@@ -1429,7 +1731,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36" s="7">
         <v>35</v>
@@ -1452,7 +1754,7 @@
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" s="7">
         <v>36</v>
@@ -1475,7 +1777,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B38" s="7">
         <v>37</v>
@@ -1498,7 +1800,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" s="7">
         <v>38</v>
@@ -1521,7 +1823,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" s="7">
         <v>39</v>
@@ -1544,7 +1846,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" s="7">
         <v>40</v>
@@ -1567,7 +1869,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42" s="7">
         <v>41</v>
@@ -1590,7 +1892,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" s="7">
         <v>42</v>
@@ -1613,7 +1915,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44" s="7">
         <v>43</v>
@@ -1636,7 +1938,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45" s="7">
         <v>44</v>
@@ -1659,7 +1961,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46" s="7">
         <v>45</v>
@@ -1691,94 +1993,1234 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088BF7C2-5C71-48F2-88B1-340786587CD2}">
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125CB48D-CE3E-45D5-B76A-4ED4A551608B}">
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database/user_pkg_SPM.xlsx
+++ b/database/user_pkg_SPM.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Xampp\htdocs\pkgspm\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\reky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2B3BBC-6E05-4655-B749-E894F20D8D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF157FF-9D28-45B2-AC58-F36350A658B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11340" yWindow="390" windowWidth="7860" windowHeight="10575" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guru" sheetId="1" r:id="rId1"/>
     <sheet name="GuruNgajar" sheetId="5" r:id="rId2"/>
-    <sheet name="usersiswa" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="usersiswa" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="129">
   <si>
     <t>NAMA</t>
   </si>
@@ -332,9 +333,6 @@
     <t>12T</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
     <t>siswaxn1</t>
   </si>
   <si>
@@ -365,36 +363,6 @@
     <t>siswaxt5</t>
   </si>
   <si>
-    <t>siswa10n1</t>
-  </si>
-  <si>
-    <t>siswa10n2</t>
-  </si>
-  <si>
-    <t>siswa10n3</t>
-  </si>
-  <si>
-    <t>siswa10n4</t>
-  </si>
-  <si>
-    <t>siswa10n5</t>
-  </si>
-  <si>
-    <t>siswa10t1</t>
-  </si>
-  <si>
-    <t>siswa10t2</t>
-  </si>
-  <si>
-    <t>siswa10t3</t>
-  </si>
-  <si>
-    <t>siswa10t4</t>
-  </si>
-  <si>
-    <t>siswa10t5</t>
-  </si>
-  <si>
     <t>siswaxin1</t>
   </si>
   <si>
@@ -423,36 +391,6 @@
   </si>
   <si>
     <t>siswaxit5</t>
-  </si>
-  <si>
-    <t>siswa11n1</t>
-  </si>
-  <si>
-    <t>siswa11t1</t>
-  </si>
-  <si>
-    <t>siswa11n2</t>
-  </si>
-  <si>
-    <t>siswa11n3</t>
-  </si>
-  <si>
-    <t>siswa11n4</t>
-  </si>
-  <si>
-    <t>siswa11n5</t>
-  </si>
-  <si>
-    <t>siswa11t2</t>
-  </si>
-  <si>
-    <t>siswa11t3</t>
-  </si>
-  <si>
-    <t>siswa11t4</t>
-  </si>
-  <si>
-    <t>siswa11t5</t>
   </si>
   <si>
     <t>siswaxiin1</t>
@@ -552,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -581,6 +519,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1996,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088BF7C2-5C71-48F2-88B1-340786587CD2}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2958,265 +2900,762 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44557D56-D428-4678-9B7B-4F6BDE8CD0E6}">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125CB48D-CE3E-45D5-B76A-4ED4A551608B}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="12" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="12" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="12" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="12" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="12" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="12" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="12" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="12" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="12" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/database/user_pkg_SPM.xlsx
+++ b/database/user_pkg_SPM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\reky\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pkgspm\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF157FF-9D28-45B2-AC58-F36350A658B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98765C2-021D-4306-9ACD-9CB1278DCD85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="390" windowWidth="7860" windowHeight="10575" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guru" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="129">
   <si>
     <t>NAMA</t>
   </si>
@@ -2903,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44557D56-D428-4678-9B7B-4F6BDE8CD0E6}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3492,169 +3492,131 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125CB48D-CE3E-45D5-B76A-4ED4A551608B}">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C5" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C9" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C10" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>128</v>
       </c>
     </row>
